--- a/assets/BOs/Odin.xlsx
+++ b/assets/BOs/Odin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DB725-CE29-4FF7-8D09-C5C49DE206E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4745D38-D60B-4B85-A693-63EDEB1C2B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4635" windowWidth="43200" windowHeight="23445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil7" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Feuil3" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="219">
   <si>
     <t>Archaic</t>
   </si>
@@ -725,298 +724,22 @@
     <t>if TC have idle time you should have some gold to train dwarf</t>
   </si>
   <si>
-    <t>Standard Water - Léonce</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Initial vills: 
-2 Vills + Ox Cart on Wood
-1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
-  </si>
-  <si>
     <t>Auto-Queue Fishing Ships</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 0 / 0</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Food</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
     <t>1 Dwarf to Gold</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ 3 / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 0</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Wood</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2 / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 2 / 0 </t>
-    </r>
-  </si>
-  <si>
-    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
-one extra boat after temple (stop auto-queue Fishing Ships)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 / 5 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 3 / 0</t>
-    </r>
-  </si>
-  <si>
     <t>Advance (3.36) - Freya</t>
   </si>
   <si>
     <t>Make a 2nd Dock</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 3 / 0</t>
-    </r>
   </si>
   <si>
     <t>Vills transition:
@@ -1024,9 +747,6 @@
   </si>
   <si>
     <t>Pre-queue Hand Axe + Pickaxe</t>
-  </si>
-  <si>
-    <t>Build 1 more Fishing Ship (9 in total)</t>
   </si>
   <si>
     <t>Classical</t>
@@ -1485,9 +1205,6 @@
     </r>
   </si>
   <si>
-    <t>build dock and Auto-Queue Fishing Ships</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1643,9 +1360,6 @@
       </rPr>
       <t xml:space="preserve"> / 3 / 0</t>
     </r>
-  </si>
-  <si>
-    <t>cut your first dock auto queue (6 or 7 fish) and build another house</t>
   </si>
   <si>
     <r>
@@ -1794,9 +1508,6 @@
     </r>
   </si>
   <si>
-    <t>for drop every food source for 400 food</t>
-  </si>
-  <si>
     <t>Advance (4.15) - Freya</t>
   </si>
   <si>
@@ -1852,9 +1563,6 @@
 (Goal = villager idle time)</t>
   </si>
   <si>
-    <t>Special anatolia build - Léonce</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0 / 1 / </t>
     </r>
@@ -2098,13 +1806,384 @@
   </si>
   <si>
     <t>Anti Krush/early relic build - By Husksuppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freyr / Loki / Odin  - Water - DoD Léonce </t>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 Vill build Ox Cart (Ox Cart to Gold) then back to Wood</t>
+  </si>
+  <si>
+    <t>builds a dock</t>
+  </si>
+  <si>
+    <t>build house at 13 pop</t>
+  </si>
+  <si>
+    <t>2 to Wood</t>
+  </si>
+  <si>
+    <t>build a second house before temple</t>
+  </si>
+  <si>
+    <t>Aim for 6 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <t>Once 1 hersir and handaxe, swap all food to wood</t>
+  </si>
+  <si>
+    <t>Build more Fishing Ship (9 in total)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0 / 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Odin special anatolia build - DoD Léonce</t>
+  </si>
+  <si>
+    <t>build dock and Auto-Queue Fishing Ships you want 3/4 fish before second dock</t>
+  </si>
+  <si>
+    <t>cut your first dock auto queue (5 or 6 fish) and build another house</t>
+  </si>
+  <si>
+    <t>force drop every food source for 400 food</t>
+  </si>
+  <si>
+    <t>check you have 18 fish</t>
+  </si>
+  <si>
+    <t>if you go land, military building then fishing boat upgrd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2277,18 +2356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2469,13 +2537,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2531,8 +2592,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2567,12 +2642,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2708,28 +2777,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="5"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="5"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2758,100 +2827,77 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="25" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2889,21 +2935,44 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Accent 1 5" xfId="8" xr:uid="{837A90DC-7FBC-4E71-AEF1-90BE83E03415}"/>
@@ -2918,8 +2987,8 @@
     <cellStyle name="Heading 1 14" xfId="17" xr:uid="{EA71912F-23DC-4619-968E-43C15F9C609B}"/>
     <cellStyle name="Heading 13" xfId="18" xr:uid="{4443B8FA-E05B-49A9-B2AF-81F7D84CBA32}"/>
     <cellStyle name="Heading 2 15" xfId="19" xr:uid="{CE7BA955-1964-42BE-A167-47B48C6C907A}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="20" xr:uid="{D2C2A2EE-AD60-418D-BBD6-29D931331F72}"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{61732208-7CA0-4B11-A373-9A79B6EA098D}"/>
     <cellStyle name="Lien hypertexte 3" xfId="7" xr:uid="{9783B941-0010-482A-9D19-1A49087C996A}"/>
     <cellStyle name="Neutral 16" xfId="21" xr:uid="{C34E335D-3673-435D-880A-D823A99428F7}"/>
@@ -3214,11 +3283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47CA131-95F3-4EFC-BDE4-73DAA8914DBA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -3227,191 +3296,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="A1" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" s="34" customFormat="1" ht="15">
+      <c r="A11" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="C17" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-    </row>
-    <row r="11" spans="1:4" s="50" customFormat="1" ht="15">
-      <c r="A11" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="57"/>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="C18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="29" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="81"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="59"/>
+      <c r="A21" s="43"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="59"/>
+      <c r="A22" s="43"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="61"/>
+      <c r="A24" s="45"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="60"/>
+      <c r="A25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="61"/>
+      <c r="A26" s="45"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="60"/>
+      <c r="A27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3433,23 +3502,23 @@
       <selection activeCell="D16" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3580,12 +3649,12 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" ht="58.5" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -3610,12 +3679,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" ht="58.5" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -3662,23 +3731,23 @@
       <selection activeCell="A23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -3783,12 +3852,12 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
@@ -3813,12 +3882,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
@@ -3839,10 +3908,10 @@
       <c r="B18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
@@ -3851,8 +3920,8 @@
       <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
@@ -3867,18 +3936,18 @@
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8"/>
@@ -3903,254 +3972,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD67B621-09DE-4392-B9E3-CAA83F705DF0}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:4" ht="143.25">
+      <c r="A4" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.25">
+      <c r="A5" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="1:4" ht="57.75">
+      <c r="A6" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="180">
-      <c r="A4" s="13" t="s">
+      <c r="D6" s="71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.25">
+      <c r="A8" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="67"/>
+    </row>
+    <row r="10" spans="1:4" ht="29.25">
+      <c r="A10" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="67"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="73"/>
+      <c r="C15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="86.25">
+      <c r="A16" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="D16" s="76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" ht="129">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D18" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="171.75">
+      <c r="A19" s="67"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="68" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="195">
-      <c r="A11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="75">
-      <c r="A16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-    </row>
-    <row r="18" spans="1:4" ht="135">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="165">
-      <c r="A19" s="12"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="11"/>
       <c r="C21" s="15"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="75"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="30"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="30"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="31"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -4175,24 +4251,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
@@ -4202,31 +4278,31 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="150">
       <c r="A4" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4234,49 +4310,49 @@
     </row>
     <row r="6" spans="1:5" ht="120">
       <c r="A6" s="13" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>127</v>
+      <c r="C6" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="150">
       <c r="A8" s="13" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4284,157 +4360,157 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="75">
       <c r="A13" s="12"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
-        <v>140</v>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="60">
       <c r="A14" s="12"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
-        <v>142</v>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>149</v>
+        <v>132</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="A18" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="315">
-      <c r="A19" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>154</v>
+      <c r="A19" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="30"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="A21" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" ht="192">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>157</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="31"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28" t="s">
-        <v>158</v>
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="31"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4457,211 +4533,217 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="1:4" ht="175.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="68"/>
+    </row>
+    <row r="7" spans="1:4" ht="143.25">
+      <c r="A7" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="67"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="1:4" ht="231">
+      <c r="A12" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B14" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="80"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D16" s="74" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="39" t="s">
+    <row r="17" spans="1:4" ht="57.75">
+      <c r="A17" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="B17" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25">
-      <c r="A6" s="5" t="s">
+      <c r="D17" s="76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:4" ht="143.25">
-      <c r="A7" s="39" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+    </row>
+    <row r="19" spans="1:4" ht="114.75">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="36" t="s">
+      <c r="C19" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="75" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="186">
-      <c r="A11" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="231">
-      <c r="A12" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="44"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="72">
-      <c r="A17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-    </row>
-    <row r="19" spans="1:4" ht="114.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4683,23 +4765,23 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -4796,12 +4878,12 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -4826,12 +4908,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
